--- a/JAN2020-Renewable energy Installed and Potential Capacity.xlsx
+++ b/JAN2020-Renewable energy Installed and Potential Capacity.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="612" windowWidth="15996" windowHeight="7620"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Renewable energy" sheetId="1" r:id="rId1"/>
+    <sheet name="Renewable energy" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Source</t>
   </si>
@@ -22,22 +21,25 @@
     <t>State</t>
   </si>
   <si>
-    <t>Capacity Type</t>
+    <t xml:space="preserve">Capacity Type</t>
   </si>
   <si>
-    <t>Capacity (in MW)</t>
+    <t xml:space="preserve">Capacity (in MW)</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Hydro</t>
   </si>
   <si>
-    <t>Andaman and Nicobar Islands</t>
+    <t xml:space="preserve">Andaman and Nicobar Islands</t>
   </si>
   <si>
-    <t>Potential Capacity</t>
+    <t xml:space="preserve">Potential Capacity</t>
   </si>
   <si>
-    <t>Installed Capacity</t>
+    <t xml:space="preserve">Installed Capacity</t>
   </si>
   <si>
     <t>Wind</t>
@@ -46,16 +48,16 @@
     <t>Solar</t>
   </si>
   <si>
-    <t>Bio Power</t>
+    <t xml:space="preserve">Bio Power</t>
   </si>
   <si>
     <t>Small-Hydro</t>
   </si>
   <si>
-    <t>Andhra Pradesh</t>
+    <t xml:space="preserve">Andhra Pradesh</t>
   </si>
   <si>
-    <t>Arunachal Pradesh</t>
+    <t xml:space="preserve">Arunachal Pradesh</t>
   </si>
   <si>
     <t>Assam</t>
@@ -70,10 +72,10 @@
     <t>Chhattisgarh</t>
   </si>
   <si>
-    <t>Dadra and Nagar Haveli</t>
+    <t xml:space="preserve">Dadra and Nagar Haveli</t>
   </si>
   <si>
-    <t>Daman and Diu</t>
+    <t xml:space="preserve">Daman and Diu</t>
   </si>
   <si>
     <t>Delhi</t>
@@ -88,10 +90,10 @@
     <t>Haryana</t>
   </si>
   <si>
-    <t>Himachal Pradesh</t>
+    <t xml:space="preserve">Himachal Pradesh</t>
   </si>
   <si>
-    <t>Jammu and Kashmir</t>
+    <t xml:space="preserve">Jammu and Kashmir</t>
   </si>
   <si>
     <t>Jharkhand</t>
@@ -109,7 +111,7 @@
     <t>Lakshadweep</t>
   </si>
   <si>
-    <t>Madhya Pradesh</t>
+    <t xml:space="preserve">Madhya Pradesh</t>
   </si>
   <si>
     <t>Maharashtra</t>
@@ -145,7 +147,7 @@
     <t>Sikkim</t>
   </si>
   <si>
-    <t>Tamil Nadu</t>
+    <t xml:space="preserve">Tamil Nadu</t>
   </si>
   <si>
     <t>Telangana</t>
@@ -154,40 +156,36 @@
     <t>Tripura</t>
   </si>
   <si>
-    <t>Uttar Pradesh</t>
+    <t xml:space="preserve">Uttar Pradesh</t>
   </si>
   <si>
     <t>Uttarakhand</t>
   </si>
   <si>
-    <t>West Bengal</t>
+    <t xml:space="preserve">West Bengal</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Copyright © 2024, NITI Aayog</t>
+    <t xml:space="preserve">Copyright © 2024, NITI Aayog</t>
   </si>
   <si>
     <t>https://iced.niti.gov.in</t>
   </si>
   <si>
-    <t>The information on this platform is mainly taken from official sources. However, in some cases, a few assumptions have been made and some data derived or assumed and is given in the detailed. While we believe that the data is reliable and adequately comprehensive, NITI Aayog ICED does not take guarantee that such information is in all respects accurate. NITI Aayog ICED does not accept any liability for any consequences resulting from the use of this data.sss</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t xml:space="preserve">The information on this platform is mainly taken from official sources. However, in some cases, a few assumptions have been made and some data derived or assumed and is given in the detailed. While we believe that the data is reliable and adequately comprehensive, NITI Aayog ICED does not take guarantee that such information is in all respects accurate. NITI Aayog ICED does not accept any liability for any consequences resulting from the use of this data.sss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="12"/>
+      <sz val="12.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,25 +199,25 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="17" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -228,7 +226,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -274,13 +272,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -303,19 +301,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -338,7 +335,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,16 +369,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -504,9 +504,215 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -525,7 +731,7 @@
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -544,21 +750,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E385"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.50390625"/>
+    <col customWidth="1" min="2" max="2" width="26.875"/>
+    <col customWidth="1" min="3" max="3" width="18.125"/>
+    <col customWidth="1" min="4" max="4" width="21.75390625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" ht="15.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,18 +782,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>145320</v>
@@ -592,32 +802,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" ht="15.6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E3" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" ht="15.6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>695509</v>
@@ -626,15 +836,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" ht="15.6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>37607.699999999997</v>
@@ -643,15 +853,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" ht="15.6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>748990</v>
@@ -660,15 +870,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" ht="15.6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>34035.660000000003</v>
@@ -677,15 +887,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>25094</v>
@@ -694,15 +904,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" ht="15.6">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>10023.26</v>
@@ -711,15 +921,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" ht="15.6">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>21130</v>
@@ -728,15 +938,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" ht="15.6">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>4676.5600000000004</v>
@@ -745,15 +955,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" ht="15.6">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>145320</v>
@@ -762,32 +972,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" ht="15.6">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E13" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" ht="15.6">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>695509</v>
@@ -796,15 +1006,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" ht="15.6">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>37607.699999999997</v>
@@ -813,15 +1023,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" ht="15.6">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>748990</v>
@@ -830,15 +1040,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" ht="15.6">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>34035.660000000003</v>
@@ -847,15 +1057,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" ht="15.6">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>25094</v>
@@ -864,15 +1074,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" ht="15.6">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>10023.26</v>
@@ -881,15 +1091,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" ht="15.6">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>21130</v>
@@ -898,15 +1108,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" ht="15.6">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>4676.5600000000004</v>
@@ -915,15 +1125,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" ht="15.6">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>145320</v>
@@ -932,32 +1142,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" ht="15.6">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E23" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" ht="15.6">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>695509</v>
@@ -966,15 +1176,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" ht="15.6">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>37607.699999999997</v>
@@ -983,15 +1193,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" ht="15.6">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>748990</v>
@@ -1000,15 +1210,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" ht="15.6">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <v>34035.660000000003</v>
@@ -1017,15 +1227,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" ht="15.6">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>25094</v>
@@ -1034,15 +1244,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" ht="15.6">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>10023.26</v>
@@ -1051,15 +1261,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" ht="15.6">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>21130</v>
@@ -1068,15 +1278,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" ht="15.6">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>4676.5600000000004</v>
@@ -1085,15 +1295,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" ht="15.6">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>145320</v>
@@ -1102,32 +1312,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" ht="15.6">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E33" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" ht="15.6">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>695509</v>
@@ -1136,15 +1346,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" ht="15.6">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>37607.699999999997</v>
@@ -1153,15 +1363,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" ht="15.6">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>748990</v>
@@ -1170,15 +1380,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" ht="15.6">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>34035.660000000003</v>
@@ -1187,15 +1397,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" ht="15.6">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>25094</v>
@@ -1204,15 +1414,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" ht="15.6">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <v>10023.26</v>
@@ -1221,15 +1431,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" ht="15.6">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40">
         <v>21130</v>
@@ -1238,15 +1448,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" ht="15.6">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41">
         <v>4676.5600000000004</v>
@@ -1255,15 +1465,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" ht="15.6">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>145320</v>
@@ -1272,32 +1482,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" ht="15.6">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E43" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" ht="15.6">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44">
         <v>695509</v>
@@ -1306,15 +1516,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" ht="15.6">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45">
         <v>37607.699999999997</v>
@@ -1323,15 +1533,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" ht="15.6">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>748990</v>
@@ -1340,15 +1550,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" ht="15.6">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <v>34035.660000000003</v>
@@ -1357,15 +1567,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" ht="15.6">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48">
         <v>25094</v>
@@ -1374,15 +1584,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" ht="15.6">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49">
         <v>10023.26</v>
@@ -1391,15 +1601,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" ht="15.6">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50">
         <v>21130</v>
@@ -1408,15 +1618,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" ht="15.6">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51">
         <v>4676.5600000000004</v>
@@ -1425,15 +1635,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" ht="15.6">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52">
         <v>145320</v>
@@ -1442,32 +1652,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" ht="15.6">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E53" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" ht="15.6">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54">
         <v>695509</v>
@@ -1476,15 +1686,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" ht="15.6">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55">
         <v>37607.699999999997</v>
@@ -1493,15 +1703,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" ht="15.6">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56">
         <v>748990</v>
@@ -1510,15 +1720,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" ht="15.6">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57">
         <v>34035.660000000003</v>
@@ -1527,15 +1737,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" ht="15.6">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>25094</v>
@@ -1544,15 +1754,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" ht="15.6">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <v>10023.26</v>
@@ -1561,15 +1771,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" ht="15.6">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60">
         <v>21130</v>
@@ -1578,15 +1788,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" ht="15.6">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61">
         <v>4676.5600000000004</v>
@@ -1595,15 +1805,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" ht="15.6">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62">
         <v>145320</v>
@@ -1612,32 +1822,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" ht="15.6">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E63" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" ht="15.6">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <v>695509</v>
@@ -1646,15 +1856,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" ht="15.6">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65">
         <v>37607.699999999997</v>
@@ -1663,15 +1873,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" ht="15.6">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D66">
         <v>748990</v>
@@ -1680,15 +1890,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" ht="15.6">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67">
         <v>34035.660000000003</v>
@@ -1697,15 +1907,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" ht="15.6">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68">
         <v>25094</v>
@@ -1714,15 +1924,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" ht="15.6">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69">
         <v>10023.26</v>
@@ -1731,15 +1941,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" ht="15.6">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70">
         <v>21130</v>
@@ -1748,15 +1958,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" ht="15.6">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71">
         <v>4676.5600000000004</v>
@@ -1765,15 +1975,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" ht="15.6">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D72">
         <v>145320</v>
@@ -1782,32 +1992,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" ht="15.6">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E73" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" ht="15.6">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74">
         <v>695509</v>
@@ -1816,15 +2026,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" ht="15.6">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75">
         <v>37607.699999999997</v>
@@ -1833,15 +2043,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" ht="15.6">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D76">
         <v>748990</v>
@@ -1850,15 +2060,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" ht="15.6">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77">
         <v>34035.660000000003</v>
@@ -1867,15 +2077,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" ht="15.6">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78">
         <v>25094</v>
@@ -1884,15 +2094,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" ht="15.6">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79">
         <v>10023.26</v>
@@ -1901,15 +2111,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" ht="15.6">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D80">
         <v>21130</v>
@@ -1918,15 +2128,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" ht="15.6">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81">
         <v>4676.5600000000004</v>
@@ -1935,15 +2145,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" ht="15.6">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82">
         <v>145320</v>
@@ -1952,32 +2162,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" ht="15.6">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E83" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" ht="15.6">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D84">
         <v>695509</v>
@@ -1986,15 +2196,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" ht="15.6">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85">
         <v>37607.699999999997</v>
@@ -2003,15 +2213,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" ht="15.6">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D86">
         <v>748990</v>
@@ -2020,15 +2230,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" ht="15.6">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87">
         <v>34035.660000000003</v>
@@ -2037,15 +2247,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" ht="15.6">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D88">
         <v>25094</v>
@@ -2054,15 +2264,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" ht="15.6">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89">
         <v>10023.26</v>
@@ -2071,15 +2281,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" ht="15.6">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D90">
         <v>21130</v>
@@ -2088,15 +2298,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" ht="15.6">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D91">
         <v>4676.5600000000004</v>
@@ -2105,15 +2315,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" ht="15.6">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D92">
         <v>145320</v>
@@ -2122,32 +2332,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" ht="15.6">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D93">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E93" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" ht="15.6">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D94">
         <v>695509</v>
@@ -2156,15 +2366,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" ht="15.6">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95">
         <v>37607.699999999997</v>
@@ -2173,15 +2383,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" ht="15.6">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D96">
         <v>748990</v>
@@ -2190,15 +2400,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" ht="15.6">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97">
         <v>34035.660000000003</v>
@@ -2207,15 +2417,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" ht="15.6">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D98">
         <v>25094</v>
@@ -2224,15 +2434,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" ht="15.6">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D99">
         <v>10023.26</v>
@@ -2241,15 +2451,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" ht="15.6">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D100">
         <v>21130</v>
@@ -2258,15 +2468,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" ht="15.6">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D101">
         <v>4676.5600000000004</v>
@@ -2275,15 +2485,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" ht="15.6">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D102">
         <v>145320</v>
@@ -2292,32 +2502,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" ht="15.6">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D103">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E103" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" ht="15.6">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D104">
         <v>695509</v>
@@ -2326,15 +2536,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" ht="15.6">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D105">
         <v>37607.699999999997</v>
@@ -2343,15 +2553,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" ht="15.6">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D106">
         <v>748990</v>
@@ -2360,15 +2570,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" ht="15.6">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107">
         <v>34035.660000000003</v>
@@ -2377,15 +2587,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" ht="15.6">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D108">
         <v>25094</v>
@@ -2394,15 +2604,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" ht="15.6">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D109">
         <v>10023.26</v>
@@ -2411,15 +2621,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" ht="15.6">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D110">
         <v>21130</v>
@@ -2428,15 +2638,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" ht="15.6">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D111">
         <v>4676.5600000000004</v>
@@ -2445,15 +2655,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" ht="15.6">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D112">
         <v>145320</v>
@@ -2462,32 +2672,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" ht="15.6">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D113">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E113" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" ht="15.6">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D114">
         <v>695509</v>
@@ -2496,15 +2706,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" ht="15.6">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D115">
         <v>37607.699999999997</v>
@@ -2513,15 +2723,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" ht="15.6">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D116">
         <v>748990</v>
@@ -2530,15 +2740,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" ht="15.6">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D117">
         <v>34035.660000000003</v>
@@ -2547,15 +2757,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" ht="15.6">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D118">
         <v>25094</v>
@@ -2564,15 +2774,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" ht="15.6">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D119">
         <v>10023.26</v>
@@ -2581,15 +2791,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" ht="15.6">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D120">
         <v>21130</v>
@@ -2598,15 +2808,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" ht="15.6">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D121">
         <v>4676.5600000000004</v>
@@ -2615,15 +2825,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" ht="15.6">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D122">
         <v>145320</v>
@@ -2632,32 +2842,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" ht="15.6">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D123">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E123" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" ht="15.6">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D124">
         <v>695509</v>
@@ -2666,15 +2876,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" ht="15.6">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D125">
         <v>37607.699999999997</v>
@@ -2683,15 +2893,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" ht="15.6">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D126">
         <v>748990</v>
@@ -2700,15 +2910,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" ht="15.6">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127">
         <v>34035.660000000003</v>
@@ -2717,15 +2927,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" ht="15.6">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D128">
         <v>25094</v>
@@ -2734,15 +2944,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" ht="15.6">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D129">
         <v>10023.26</v>
@@ -2751,15 +2961,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" ht="15.6">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D130">
         <v>21130</v>
@@ -2768,15 +2978,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" ht="15.6">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D131">
         <v>4676.5600000000004</v>
@@ -2785,15 +2995,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" ht="15.6">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D132">
         <v>145320</v>
@@ -2802,32 +3012,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" ht="15.6">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D133">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E133" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" ht="15.6">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D134">
         <v>695509</v>
@@ -2836,15 +3046,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" ht="15.6">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D135">
         <v>37607.699999999997</v>
@@ -2853,15 +3063,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" ht="15.6">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D136">
         <v>748990</v>
@@ -2870,15 +3080,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" ht="15.6">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D137">
         <v>34035.660000000003</v>
@@ -2887,15 +3097,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" ht="15.6">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D138">
         <v>25094</v>
@@ -2904,15 +3114,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" ht="15.6">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D139">
         <v>10023.26</v>
@@ -2921,15 +3131,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" ht="15.6">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D140">
         <v>21130</v>
@@ -2938,15 +3148,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" ht="15.6">
       <c r="A141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D141">
         <v>4676.5600000000004</v>
@@ -2955,15 +3165,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" ht="15.6">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D142">
         <v>145320</v>
@@ -2972,32 +3182,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" ht="15.6">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D143">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E143" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" ht="15.6">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D144">
         <v>695509</v>
@@ -3006,15 +3216,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" ht="15.6">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D145">
         <v>37607.699999999997</v>
@@ -3023,15 +3233,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" ht="15.6">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D146">
         <v>748990</v>
@@ -3040,15 +3250,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" ht="15.6">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D147">
         <v>34035.660000000003</v>
@@ -3057,15 +3267,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" ht="15.6">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D148">
         <v>25094</v>
@@ -3074,15 +3284,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" ht="15.6">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D149">
         <v>10023.26</v>
@@ -3091,15 +3301,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" ht="15.6">
       <c r="A150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D150">
         <v>21130</v>
@@ -3108,15 +3318,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" ht="15.6">
       <c r="A151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D151">
         <v>4676.5600000000004</v>
@@ -3125,15 +3335,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" ht="15.6">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D152">
         <v>145320</v>
@@ -3142,32 +3352,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" ht="15.6">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D153">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E153" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" ht="15.6">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D154">
         <v>695509</v>
@@ -3176,15 +3386,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" ht="15.6">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D155">
         <v>37607.699999999997</v>
@@ -3193,15 +3403,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" ht="15.6">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D156">
         <v>748990</v>
@@ -3210,15 +3420,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" ht="15.6">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D157">
         <v>34035.660000000003</v>
@@ -3227,15 +3437,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" ht="15.6">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D158">
         <v>25094</v>
@@ -3244,15 +3454,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" ht="15.6">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D159">
         <v>10023.26</v>
@@ -3261,15 +3471,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" ht="15.6">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D160">
         <v>21130</v>
@@ -3278,15 +3488,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" ht="15.6">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D161">
         <v>4676.5600000000004</v>
@@ -3295,15 +3505,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" ht="15.6">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D162">
         <v>145320</v>
@@ -3312,32 +3522,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" ht="15.6">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D163">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E163" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" ht="15.6">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D164">
         <v>695509</v>
@@ -3346,15 +3556,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" ht="15.6">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D165">
         <v>37607.699999999997</v>
@@ -3363,15 +3573,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" ht="15.6">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D166">
         <v>748990</v>
@@ -3380,15 +3590,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" ht="15.6">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D167">
         <v>34035.660000000003</v>
@@ -3397,15 +3607,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" ht="15.6">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D168">
         <v>25094</v>
@@ -3414,15 +3624,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" ht="15.6">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D169">
         <v>10023.26</v>
@@ -3431,15 +3641,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" ht="15.6">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D170">
         <v>21130</v>
@@ -3448,15 +3658,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" ht="15.6">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D171">
         <v>4676.5600000000004</v>
@@ -3465,15 +3675,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" ht="15.6">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D172">
         <v>145320</v>
@@ -3482,32 +3692,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" ht="15.6">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D173">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E173" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" ht="15.6">
       <c r="A174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D174">
         <v>695509</v>
@@ -3516,15 +3726,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" ht="15.6">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D175">
         <v>37607.699999999997</v>
@@ -3533,15 +3743,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" ht="15.6">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D176">
         <v>748990</v>
@@ -3550,15 +3760,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" ht="15.6">
       <c r="A177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D177">
         <v>34035.660000000003</v>
@@ -3567,15 +3777,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" ht="15.6">
       <c r="A178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D178">
         <v>25094</v>
@@ -3584,15 +3794,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" ht="15.6">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D179">
         <v>10023.26</v>
@@ -3601,15 +3811,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" ht="15.6">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D180">
         <v>21130</v>
@@ -3618,15 +3828,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" ht="15.6">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D181">
         <v>4676.5600000000004</v>
@@ -3635,15 +3845,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" ht="15.6">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D182">
         <v>145320</v>
@@ -3652,32 +3862,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" ht="15.6">
       <c r="A183" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D183">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E183" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" ht="15.6">
       <c r="A184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D184">
         <v>695509</v>
@@ -3686,15 +3896,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" ht="15.6">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D185">
         <v>37607.699999999997</v>
@@ -3703,15 +3913,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" ht="15.6">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D186">
         <v>748990</v>
@@ -3720,15 +3930,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" ht="15.6">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D187">
         <v>34035.660000000003</v>
@@ -3737,15 +3947,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" ht="15.6">
       <c r="A188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D188">
         <v>25094</v>
@@ -3754,15 +3964,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" ht="15.6">
       <c r="A189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D189">
         <v>10023.26</v>
@@ -3771,15 +3981,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" ht="15.6">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D190">
         <v>21130</v>
@@ -3788,15 +3998,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" ht="15.6">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D191">
         <v>4676.5600000000004</v>
@@ -3805,15 +4015,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" ht="15.6">
       <c r="A192" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D192">
         <v>145320</v>
@@ -3822,32 +4032,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" ht="15.6">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D193">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E193" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" ht="15.6">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D194">
         <v>695509</v>
@@ -3856,15 +4066,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" ht="15.6">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D195">
         <v>37607.699999999997</v>
@@ -3873,15 +4083,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" ht="15.6">
       <c r="A196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D196">
         <v>748990</v>
@@ -3890,15 +4100,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" ht="15.6">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D197">
         <v>34035.660000000003</v>
@@ -3907,15 +4117,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" ht="15.6">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D198">
         <v>25094</v>
@@ -3924,15 +4134,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" ht="15.6">
       <c r="A199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D199">
         <v>10023.26</v>
@@ -3941,15 +4151,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" ht="15.6">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D200">
         <v>21130</v>
@@ -3958,15 +4168,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" ht="15.6">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D201">
         <v>4676.5600000000004</v>
@@ -3975,15 +4185,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" ht="15.6">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B202" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D202">
         <v>145320</v>
@@ -3992,32 +4202,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" ht="15.6">
       <c r="A203" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D203">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E203" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" ht="15.6">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D204">
         <v>695509</v>
@@ -4026,15 +4236,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" ht="15.6">
       <c r="A205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D205">
         <v>37607.699999999997</v>
@@ -4043,15 +4253,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" ht="15.6">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D206">
         <v>748990</v>
@@ -4060,15 +4270,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" ht="15.6">
       <c r="A207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D207">
         <v>34035.660000000003</v>
@@ -4077,15 +4287,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" ht="15.6">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D208">
         <v>25094</v>
@@ -4094,15 +4304,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" ht="15.6">
       <c r="A209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B209" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D209">
         <v>10023.26</v>
@@ -4111,15 +4321,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" ht="15.6">
       <c r="A210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B210" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D210">
         <v>21130</v>
@@ -4128,15 +4338,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" ht="15.6">
       <c r="A211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B211" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D211">
         <v>4676.5600000000004</v>
@@ -4145,15 +4355,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" ht="15.6">
       <c r="A212" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D212">
         <v>145320</v>
@@ -4162,32 +4372,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" ht="15.6">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D213">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E213" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" ht="15.6">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D214">
         <v>695509</v>
@@ -4196,15 +4406,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" ht="15.6">
       <c r="A215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D215">
         <v>37607.699999999997</v>
@@ -4213,15 +4423,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" ht="15.6">
       <c r="A216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D216">
         <v>748990</v>
@@ -4230,15 +4440,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" ht="15.6">
       <c r="A217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D217">
         <v>34035.660000000003</v>
@@ -4247,15 +4457,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" ht="15.6">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D218">
         <v>25094</v>
@@ -4264,15 +4474,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" ht="15.6">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D219">
         <v>10023.26</v>
@@ -4281,15 +4491,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" ht="15.6">
       <c r="A220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D220">
         <v>21130</v>
@@ -4298,15 +4508,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" ht="15.6">
       <c r="A221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B221" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D221">
         <v>4676.5600000000004</v>
@@ -4315,15 +4525,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" ht="15.6">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D222">
         <v>145320</v>
@@ -4332,32 +4542,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" ht="15.6">
       <c r="A223" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D223">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E223" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" ht="15.6">
       <c r="A224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D224">
         <v>695509</v>
@@ -4366,15 +4576,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" ht="15.6">
       <c r="A225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D225">
         <v>37607.699999999997</v>
@@ -4383,15 +4593,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" ht="15.6">
       <c r="A226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B226" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D226">
         <v>748990</v>
@@ -4400,15 +4610,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" ht="15.6">
       <c r="A227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D227">
         <v>34035.660000000003</v>
@@ -4417,15 +4627,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" ht="15.6">
       <c r="A228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B228" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D228">
         <v>25094</v>
@@ -4434,15 +4644,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" ht="15.6">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D229">
         <v>10023.26</v>
@@ -4451,15 +4661,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" ht="15.6">
       <c r="A230" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D230">
         <v>21130</v>
@@ -4468,15 +4678,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" ht="15.6">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B231" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D231">
         <v>4676.5600000000004</v>
@@ -4485,15 +4695,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" ht="15.6">
       <c r="A232" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B232" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D232">
         <v>145320</v>
@@ -4502,32 +4712,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" ht="15.6">
       <c r="A233" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D233">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E233" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" ht="15.6">
       <c r="A234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D234">
         <v>695509</v>
@@ -4536,15 +4746,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" ht="15.6">
       <c r="A235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D235">
         <v>37607.699999999997</v>
@@ -4553,15 +4763,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" ht="15.6">
       <c r="A236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B236" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D236">
         <v>748990</v>
@@ -4570,15 +4780,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" ht="15.6">
       <c r="A237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D237">
         <v>34035.660000000003</v>
@@ -4587,15 +4797,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" ht="15.6">
       <c r="A238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B238" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D238">
         <v>25094</v>
@@ -4604,15 +4814,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" ht="15.6">
       <c r="A239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B239" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D239">
         <v>10023.26</v>
@@ -4621,15 +4831,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" ht="15.6">
       <c r="A240" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B240" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D240">
         <v>21130</v>
@@ -4638,15 +4848,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" ht="15.6">
       <c r="A241" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B241" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D241">
         <v>4676.5600000000004</v>
@@ -4655,15 +4865,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" ht="15.6">
       <c r="A242" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B242" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D242">
         <v>145320</v>
@@ -4672,32 +4882,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" ht="15.6">
       <c r="A243" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B243" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D243">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E243" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" ht="15.6">
       <c r="A244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D244">
         <v>695509</v>
@@ -4706,15 +4916,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" ht="15.6">
       <c r="A245" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D245">
         <v>37607.699999999997</v>
@@ -4723,15 +4933,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" ht="15.6">
       <c r="A246" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B246" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D246">
         <v>748990</v>
@@ -4740,15 +4950,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" ht="15.6">
       <c r="A247" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B247" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D247">
         <v>34035.660000000003</v>
@@ -4757,15 +4967,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" ht="15.6">
       <c r="A248" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B248" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D248">
         <v>25094</v>
@@ -4774,15 +4984,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" ht="15.6">
       <c r="A249" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B249" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D249">
         <v>10023.26</v>
@@ -4791,15 +5001,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" ht="15.6">
       <c r="A250" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B250" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D250">
         <v>21130</v>
@@ -4808,15 +5018,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" ht="15.6">
       <c r="A251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B251" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D251">
         <v>4676.5600000000004</v>
@@ -4825,15 +5035,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" ht="15.6">
       <c r="A252" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B252" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D252">
         <v>145320</v>
@@ -4842,32 +5052,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" ht="15.6">
       <c r="A253" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B253" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D253">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E253" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" ht="15.6">
       <c r="A254" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D254">
         <v>695509</v>
@@ -4876,15 +5086,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" ht="15.6">
       <c r="A255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D255">
         <v>37607.699999999997</v>
@@ -4893,15 +5103,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" ht="15.6">
       <c r="A256" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B256" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D256">
         <v>748990</v>
@@ -4910,15 +5120,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" ht="15.6">
       <c r="A257" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B257" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D257">
         <v>34035.660000000003</v>
@@ -4927,15 +5137,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" ht="15.6">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D258">
         <v>25094</v>
@@ -4944,15 +5154,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" ht="15.6">
       <c r="A259" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B259" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C259" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D259">
         <v>10023.26</v>
@@ -4961,15 +5171,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" ht="15.6">
       <c r="A260" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B260" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D260">
         <v>21130</v>
@@ -4978,15 +5188,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" ht="15.6">
       <c r="A261" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B261" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D261">
         <v>4676.5600000000004</v>
@@ -4995,15 +5205,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" ht="15.6">
       <c r="A262" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B262" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D262">
         <v>145320</v>
@@ -5012,32 +5222,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" ht="15.6">
       <c r="A263" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B263" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C263" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D263">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E263" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" ht="15.6">
       <c r="A264" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D264">
         <v>695509</v>
@@ -5046,15 +5256,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" ht="15.6">
       <c r="A265" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C265" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D265">
         <v>37607.699999999997</v>
@@ -5063,15 +5273,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" ht="15.6">
       <c r="A266" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B266" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D266">
         <v>748990</v>
@@ -5080,15 +5290,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" ht="15.6">
       <c r="A267" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B267" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C267" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D267">
         <v>34035.660000000003</v>
@@ -5097,15 +5307,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" ht="15.6">
       <c r="A268" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B268" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D268">
         <v>25094</v>
@@ -5114,15 +5324,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" ht="15.6">
       <c r="A269" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B269" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C269" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D269">
         <v>10023.26</v>
@@ -5131,15 +5341,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" ht="15.6">
       <c r="A270" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B270" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D270">
         <v>21130</v>
@@ -5148,15 +5358,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" ht="15.6">
       <c r="A271" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B271" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C271" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D271">
         <v>4676.5600000000004</v>
@@ -5165,15 +5375,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" ht="15.6">
       <c r="A272" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B272" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C272" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D272">
         <v>145320</v>
@@ -5182,32 +5392,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" ht="15.6">
       <c r="A273" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B273" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C273" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D273">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E273" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" ht="15.6">
       <c r="A274" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C274" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D274">
         <v>695509</v>
@@ -5216,15 +5426,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" ht="15.6">
       <c r="A275" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C275" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D275">
         <v>37607.699999999997</v>
@@ -5233,15 +5443,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" ht="15.6">
       <c r="A276" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B276" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C276" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D276">
         <v>748990</v>
@@ -5250,15 +5460,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" ht="15.6">
       <c r="A277" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B277" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C277" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D277">
         <v>34035.660000000003</v>
@@ -5267,15 +5477,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" ht="15.6">
       <c r="A278" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B278" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C278" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D278">
         <v>25094</v>
@@ -5284,15 +5494,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" ht="15.6">
       <c r="A279" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B279" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C279" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D279">
         <v>10023.26</v>
@@ -5301,15 +5511,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" ht="15.6">
       <c r="A280" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B280" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D280">
         <v>21130</v>
@@ -5318,15 +5528,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" ht="15.6">
       <c r="A281" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B281" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C281" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D281">
         <v>4676.5600000000004</v>
@@ -5335,15 +5545,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" ht="15.6">
       <c r="A282" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D282">
         <v>145320</v>
@@ -5352,32 +5562,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" ht="15.6">
       <c r="A283" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B283" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C283" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D283">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E283" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" ht="15.6">
       <c r="A284" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D284">
         <v>695509</v>
@@ -5386,15 +5596,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" ht="15.6">
       <c r="A285" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C285" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D285">
         <v>37607.699999999997</v>
@@ -5403,15 +5613,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" ht="15.6">
       <c r="A286" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B286" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D286">
         <v>748990</v>
@@ -5420,15 +5630,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" ht="15.6">
       <c r="A287" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B287" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C287" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D287">
         <v>34035.660000000003</v>
@@ -5437,15 +5647,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" ht="15.6">
       <c r="A288" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B288" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D288">
         <v>25094</v>
@@ -5454,15 +5664,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" ht="15.6">
       <c r="A289" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B289" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C289" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D289">
         <v>10023.26</v>
@@ -5471,15 +5681,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" ht="15.6">
       <c r="A290" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B290" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D290">
         <v>21130</v>
@@ -5488,15 +5698,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" ht="15.6">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B291" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C291" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D291">
         <v>4676.5600000000004</v>
@@ -5505,15 +5715,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" ht="15.6">
       <c r="A292" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B292" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D292">
         <v>145320</v>
@@ -5522,32 +5732,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" ht="15.6">
       <c r="A293" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B293" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C293" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D293">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E293" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" ht="15.6">
       <c r="A294" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C294" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D294">
         <v>695509</v>
@@ -5556,15 +5766,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" ht="15.6">
       <c r="A295" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C295" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D295">
         <v>37607.699999999997</v>
@@ -5573,15 +5783,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" ht="15.6">
       <c r="A296" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B296" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D296">
         <v>748990</v>
@@ -5590,15 +5800,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" ht="15.6">
       <c r="A297" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B297" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C297" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D297">
         <v>34035.660000000003</v>
@@ -5607,15 +5817,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" ht="15.6">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B298" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C298" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D298">
         <v>25094</v>
@@ -5624,15 +5834,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" ht="15.6">
       <c r="A299" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B299" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C299" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D299">
         <v>10023.26</v>
@@ -5641,15 +5851,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" ht="15.6">
       <c r="A300" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B300" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C300" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D300">
         <v>21130</v>
@@ -5658,15 +5868,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" ht="15.6">
       <c r="A301" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B301" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C301" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D301">
         <v>4676.5600000000004</v>
@@ -5675,15 +5885,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" ht="15.6">
       <c r="A302" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B302" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D302">
         <v>145320</v>
@@ -5692,32 +5902,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" ht="15.6">
       <c r="A303" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B303" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C303" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D303">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E303" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" ht="15.6">
       <c r="A304" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C304" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D304">
         <v>695509</v>
@@ -5726,15 +5936,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" ht="15.6">
       <c r="A305" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C305" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D305">
         <v>37607.699999999997</v>
@@ -5743,15 +5953,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" ht="15.6">
       <c r="A306" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B306" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D306">
         <v>748990</v>
@@ -5760,15 +5970,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" ht="15.6">
       <c r="A307" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B307" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C307" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D307">
         <v>34035.660000000003</v>
@@ -5777,15 +5987,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" ht="15.6">
       <c r="A308" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B308" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D308">
         <v>25094</v>
@@ -5794,15 +6004,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" ht="15.6">
       <c r="A309" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B309" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C309" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D309">
         <v>10023.26</v>
@@ -5811,15 +6021,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" ht="15.6">
       <c r="A310" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B310" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C310" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D310">
         <v>21130</v>
@@ -5828,15 +6038,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" ht="15.6">
       <c r="A311" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B311" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C311" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D311">
         <v>4676.5600000000004</v>
@@ -5845,15 +6055,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" ht="15.6">
       <c r="A312" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B312" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C312" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D312">
         <v>145320</v>
@@ -5862,32 +6072,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" ht="15.6">
       <c r="A313" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B313" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C313" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D313">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E313" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" ht="15.6">
       <c r="A314" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C314" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D314">
         <v>695509</v>
@@ -5896,15 +6106,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" ht="15.6">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B315" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C315" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D315">
         <v>37607.699999999997</v>
@@ -5913,15 +6123,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" ht="15.6">
       <c r="A316" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B316" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D316">
         <v>748990</v>
@@ -5930,15 +6140,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" ht="15.6">
       <c r="A317" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B317" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C317" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D317">
         <v>34035.660000000003</v>
@@ -5947,15 +6157,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" ht="15.6">
       <c r="A318" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B318" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C318" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D318">
         <v>25094</v>
@@ -5964,15 +6174,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" ht="15.6">
       <c r="A319" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B319" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C319" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D319">
         <v>10023.26</v>
@@ -5981,15 +6191,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" ht="15.6">
       <c r="A320" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B320" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D320">
         <v>21130</v>
@@ -5998,15 +6208,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" ht="15.6">
       <c r="A321" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B321" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C321" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D321">
         <v>4676.5600000000004</v>
@@ -6015,15 +6225,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" ht="15.6">
       <c r="A322" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B322" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C322" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D322">
         <v>145320</v>
@@ -6032,32 +6242,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" ht="15.6">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B323" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C323" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D323">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E323" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" ht="15.6">
       <c r="A324" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C324" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D324">
         <v>695509</v>
@@ -6066,15 +6276,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" ht="15.6">
       <c r="A325" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C325" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D325">
         <v>37607.699999999997</v>
@@ -6083,15 +6293,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" ht="15.6">
       <c r="A326" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B326" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C326" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D326">
         <v>748990</v>
@@ -6100,15 +6310,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" ht="15.6">
       <c r="A327" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B327" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C327" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D327">
         <v>34035.660000000003</v>
@@ -6117,15 +6327,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" ht="15.6">
       <c r="A328" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B328" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C328" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D328">
         <v>25094</v>
@@ -6134,15 +6344,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" ht="15.6">
       <c r="A329" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B329" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C329" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D329">
         <v>10023.26</v>
@@ -6151,15 +6361,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" ht="15.6">
       <c r="A330" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B330" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C330" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D330">
         <v>21130</v>
@@ -6168,15 +6378,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" ht="15.6">
       <c r="A331" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B331" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C331" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D331">
         <v>4676.5600000000004</v>
@@ -6185,15 +6395,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" ht="15.6">
       <c r="A332" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B332" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C332" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D332">
         <v>145320</v>
@@ -6202,32 +6412,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" ht="15.6">
       <c r="A333" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B333" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C333" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D333">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E333" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" ht="15.6">
       <c r="A334" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C334" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D334">
         <v>695509</v>
@@ -6236,15 +6446,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" ht="15.6">
       <c r="A335" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B335" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C335" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D335">
         <v>37607.699999999997</v>
@@ -6253,15 +6463,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" ht="15.6">
       <c r="A336" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B336" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C336" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D336">
         <v>748990</v>
@@ -6270,15 +6480,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" ht="15.6">
       <c r="A337" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B337" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C337" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D337">
         <v>34035.660000000003</v>
@@ -6287,15 +6497,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" ht="15.6">
       <c r="A338" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B338" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C338" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D338">
         <v>25094</v>
@@ -6304,15 +6514,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" ht="15.6">
       <c r="A339" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B339" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C339" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D339">
         <v>10023.26</v>
@@ -6321,15 +6531,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" ht="15.6">
       <c r="A340" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B340" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C340" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D340">
         <v>21130</v>
@@ -6338,15 +6548,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" ht="15.6">
       <c r="A341" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B341" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C341" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D341">
         <v>4676.5600000000004</v>
@@ -6355,15 +6565,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" ht="15.6">
       <c r="A342" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B342" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C342" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D342">
         <v>145320</v>
@@ -6372,32 +6582,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="343" ht="15.6">
       <c r="A343" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B343" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C343" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D343">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E343" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" ht="15.6">
       <c r="A344" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B344" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C344" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D344">
         <v>695509</v>
@@ -6406,15 +6616,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" ht="15.6">
       <c r="A345" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B345" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C345" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D345">
         <v>37607.699999999997</v>
@@ -6423,15 +6633,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" ht="15.6">
       <c r="A346" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B346" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C346" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D346">
         <v>748990</v>
@@ -6440,15 +6650,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" ht="15.6">
       <c r="A347" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B347" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C347" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D347">
         <v>34035.660000000003</v>
@@ -6457,15 +6667,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" ht="15.6">
       <c r="A348" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B348" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C348" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D348">
         <v>25094</v>
@@ -6474,15 +6684,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" ht="15.6">
       <c r="A349" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B349" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C349" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D349">
         <v>10023.26</v>
@@ -6491,15 +6701,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" ht="15.6">
       <c r="A350" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B350" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C350" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D350">
         <v>21130</v>
@@ -6508,15 +6718,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" ht="15.6">
       <c r="A351" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B351" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C351" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D351">
         <v>4676.5600000000004</v>
@@ -6525,15 +6735,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" ht="15.6">
       <c r="A352" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B352" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C352" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D352">
         <v>145320</v>
@@ -6542,32 +6752,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="353" ht="15.6">
       <c r="A353" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B353" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C353" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D353">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E353" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="354" ht="15.6">
       <c r="A354" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B354" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C354" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D354">
         <v>695509</v>
@@ -6576,15 +6786,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" ht="15.6">
       <c r="A355" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B355" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C355" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D355">
         <v>37607.699999999997</v>
@@ -6593,15 +6803,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" ht="15.6">
       <c r="A356" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B356" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C356" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D356">
         <v>748990</v>
@@ -6610,15 +6820,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="357" ht="15.6">
       <c r="A357" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B357" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C357" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D357">
         <v>34035.660000000003</v>
@@ -6627,15 +6837,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" ht="15.6">
       <c r="A358" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B358" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C358" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D358">
         <v>25094</v>
@@ -6644,15 +6854,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" ht="15.6">
       <c r="A359" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B359" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C359" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D359">
         <v>10023.26</v>
@@ -6661,15 +6871,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="360" ht="15.6">
       <c r="A360" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B360" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C360" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D360">
         <v>21130</v>
@@ -6678,15 +6888,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="361" ht="15.6">
       <c r="A361" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B361" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C361" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D361">
         <v>4676.5600000000004</v>
@@ -6695,15 +6905,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" ht="15.6">
       <c r="A362" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B362" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C362" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D362">
         <v>145320</v>
@@ -6712,32 +6922,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="363" ht="15.6">
       <c r="A363" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B363" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C363" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D363">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E363" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="364" ht="15.6">
       <c r="A364" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B364" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C364" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D364">
         <v>695509</v>
@@ -6746,15 +6956,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" ht="15.6">
       <c r="A365" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B365" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C365" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D365">
         <v>37607.699999999997</v>
@@ -6763,15 +6973,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="366" ht="15.6">
       <c r="A366" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B366" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C366" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D366">
         <v>748990</v>
@@ -6780,15 +6990,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="367" ht="15.6">
       <c r="A367" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B367" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C367" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D367">
         <v>34035.660000000003</v>
@@ -6797,15 +7007,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" ht="15.6">
       <c r="A368" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B368" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C368" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D368">
         <v>25094</v>
@@ -6814,15 +7024,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="369" ht="15.6">
       <c r="A369" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B369" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C369" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D369">
         <v>10023.26</v>
@@ -6831,15 +7041,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="370" ht="15.6">
       <c r="A370" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B370" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C370" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D370">
         <v>21130</v>
@@ -6848,15 +7058,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="371" ht="15.6">
       <c r="A371" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B371" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C371" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D371">
         <v>4676.5600000000004</v>
@@ -6865,15 +7075,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" ht="15.6">
       <c r="A372" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B372" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C372" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D372">
         <v>145320</v>
@@ -6882,32 +7092,32 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="373" ht="15.6">
       <c r="A373" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B373" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C373" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D373">
-        <v>45399.22</v>
+        <v>45399.220000000001</v>
       </c>
       <c r="E373" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="374" ht="15.6">
       <c r="A374" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B374" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C374" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D374">
         <v>695509</v>
@@ -6916,15 +7126,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" ht="15.6">
       <c r="A375" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B375" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C375" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D375">
         <v>37607.699999999997</v>
@@ -6933,15 +7143,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" ht="15.6">
       <c r="A376" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B376" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C376" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D376">
         <v>748990</v>
@@ -6950,15 +7160,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="377" ht="15.6">
       <c r="A377" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B377" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C377" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D377">
         <v>34035.660000000003</v>
@@ -6967,15 +7177,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="378" ht="15.6">
       <c r="A378" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B378" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C378" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D378">
         <v>25094</v>
@@ -6984,15 +7194,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" ht="15.6">
       <c r="A379" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B379" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C379" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D379">
         <v>10023.26</v>
@@ -7001,15 +7211,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="380" ht="15.6">
       <c r="A380" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B380" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C380" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D380">
         <v>21130</v>
@@ -7018,15 +7228,15 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="381" ht="15.6">
       <c r="A381" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B381" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C381" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D381">
         <v>4676.5600000000004</v>
@@ -7035,30 +7245,30 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="382" ht="15.6">
       <c r="A382" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="383" ht="15.6">
       <c r="A383" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="384" ht="15.6">
       <c r="A384" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="385" ht="15.6">
       <c r="A385" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D385" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>